--- a/biology/Botanique/Diervilla/Diervilla.xlsx
+++ b/biology/Botanique/Diervilla/Diervilla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Diervilla est un genre d'arbustes de la famille des Caprifoliacées selon la classification classique, ou des Diervillacées selon la classification phylogénétique.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de Diervilla a été créé par Tournefort en l'honneur de Dière de Dièreville, botaniste français en Acadie[1], qui introduisit la plante en Europe vers 1700.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de Diervilla a été créé par Tournefort en l'honneur de Dière de Dièreville, botaniste français en Acadie, qui introduisit la plante en Europe vers 1700.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un arbuste drageonnant à feuillage caduc, dont la taille varie entre 1 et 2 mètres selon les espèces. Ses feuilles sont simples oblongues, lancéolées à ovales, opposées, dentées. Ses fleurs jaunes, mais aussi rouges ou orange, bilabiées et tubulaires, groupées en cymes, apparaissent au début de l'été. Même s'il accepte toutes les expositions, il se développe principalement à l'ombre, dans les sous-bois ou à l'abri de grands arbres.
 </t>
@@ -573,7 +589,9 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Selon [réf. nécessaire] :
 Diervilla lonicera Mill.
@@ -583,7 +601,7 @@
 Diervilla sessilifolia Buckl.
 Diervilla ×splendens (Carrière) G. Kirchn.
 Diervilla suavis Kom.
-Selon NCBI  (23 Jul 2010)[2] et ITIS      (23 Jul 2010)[3] :
+Selon NCBI  (23 Jul 2010) et ITIS      (23 Jul 2010) :
 Diervilla lonicera P. Mill.
 Diervilla rivularis Gattinger
 Diervilla sessilifolia Buckl.</t>
